--- a/pred_ohlcv/54_21/2020-01-19 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 APIS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3374642.6365</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3373815.327</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3373815.327</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4745848.9344</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4418797.6937</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-5033342.790999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3927445.036199999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1609770.176799999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2640563.328099999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2639725.709899999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4567560.220999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3305643.730099999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5252510.912299999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9199463.728899999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-9940375.232599998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-14046964.4658</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-14046964.4658</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-21513042.37290002</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-21496491.56191028</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-23088065.16851028</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-23084712.08161028</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-27235404.73301028</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-30044541.49081028</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-27399561.29271028</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-25655797.21221028</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-26815305.52611028</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-25160141.39871028</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-26428679.70281028</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-43099599.87601028</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-40881346.11741028</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-49218624.63191028</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-49884275.93511028</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-45225320.04401028</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-44684600.62111028</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-43429718.70321028</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-49329718.70321028</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-50695717.85624101</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-51615561.16864101</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-49364219.76894101</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-48031974.131441</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-45920610.39864101</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-45917523.188541</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-47374472.622441</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 APIS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3374642.6365</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3373815.327</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3373815.327</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4745848.9344</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4418797.6937</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-5033342.790999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3927445.036199999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1609770.176799999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2640563.328099999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2639725.709899999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4567560.220999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3305643.730099999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5252510.912299999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9199463.728899999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-9940375.232599998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-8785964.924099999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-10743118.5756</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-12173056.1197</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-14046964.4658</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-14046964.4658</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-15652837.5928</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16568484.4018</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-18357828.1396</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-21513042.37290002</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-21496491.56191028</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-23088065.16851028</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-23084712.08161028</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-27235404.73301028</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-30044541.49081028</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-27399561.29271028</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-25655797.21221028</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-26815305.52611028</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-25160141.39871028</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-26428679.70281028</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-43099599.87601028</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-40881346.11741028</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-49218624.63191028</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-49884275.93511028</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-48228895.18041028</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-45225320.04401028</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-47374472.622441</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
